--- a/biology/Biologie cellulaire et moléculaire/Centriole/Centriole.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Centriole/Centriole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centriole est une structure cellulaire intracytoplasmique constituée de neuf triplets inclinés de microtubules, entourés par un certain nombre de protéines collectivement appelé matrice péricentriolaire de MAP (microtubule associated protein). Il est présent dans la cellule animale. Les végétaux en sont dépourvus sauf pour les formes peu complexes comme les mousses et les fougères. 
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines cellules animales peuvent posséder de nombreux centrioles comme dans le cas des cellules épithéliales ciliées (surtout dans le système pulmonaire) qui possèdent une paire de centrioles pour chaque cil. Dans certains types cellulaires, le centriole migre à la membrane plasmique pour commencer la formation d'un cil ou bien d'un flagelle. À la base du cil ou d'un flagelle, le centriole est appelé corps basal (en). L'exemple le plus connu est celui de la formation du flagelle au cours de la spermiogenèse. On peut également citer la formation de l'axone neuronal par les neurones.
-Dans la cellule animale, deux centrioles sont disposés perpendiculairement, ne se touchent pas et forment avec le matériel péricentriolaire le centre organisateur des microtubules[1] qui est toujours à proximité du Golgi et est souvent proche du noyau. Il intervient dans la polymérisation des microtubules et la mitose.
+Dans la cellule animale, deux centrioles sont disposés perpendiculairement, ne se touchent pas et forment avec le matériel péricentriolaire le centre organisateur des microtubules qui est toujours à proximité du Golgi et est souvent proche du noyau. Il intervient dans la polymérisation des microtubules et la mitose.
 Son rôle dans la division cellulaire consiste à former l'appareil mitotique. Chaque paire de centrioles se déplace à un pôle de la cellule, formant un aster. Un réseau de microtubules se forme alors entre ces deux extrémités : le fuseau mitotique. Les chromosomes se déplacent à l'aide de ce réseau lors de la division cellulaire durant la métaphase et l'anaphase, c'est-à-dire lors de la ségrégation des chromosomes entre les deux cellules filles.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Cycle des centrioles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lors du cycle cellulaire :
 en fin de phase G1, les deux centrioles se dupliquent puis s'écartent, en phase S ;
